--- a/data/trans_dic/P70B_R_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R_2023-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8974776768786326</v>
+        <v>0.8974776768786322</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8741361160375957</v>
+        <v>0.8741361160375956</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8894386935561928</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8231206080941922</v>
+        <v>0.8281863830957942</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7990676435013447</v>
+        <v>0.7968096143654001</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8379272038611271</v>
+        <v>0.8352950170214883</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9455534578930499</v>
+        <v>0.9420774035727959</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9316188201618822</v>
+        <v>0.9275849943655352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.922528670464706</v>
+        <v>0.9291494703975486</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.8224903731985554</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8400749749916818</v>
+        <v>0.840074974991682</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8299657948274224</v>
+        <v>0.8299657948274227</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7969911498180451</v>
+        <v>0.7944169477775826</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8164398309053749</v>
+        <v>0.8160908671594301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.813001463165246</v>
+        <v>0.8121591302820647</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.847403987181447</v>
+        <v>0.8458127995973095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.860163295430283</v>
+        <v>0.8597680484235325</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8466447625875202</v>
+        <v>0.8447799772141996</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9201377405345159</v>
+        <v>0.9201377405345158</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8795386378562706</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8861386729923565</v>
+        <v>0.8828643194761071</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8521063587370509</v>
+        <v>0.8497319942009571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8791056285501369</v>
+        <v>0.8769307154039532</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9467519269976428</v>
+        <v>0.9450425237103135</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9061650361529574</v>
+        <v>0.9038699417125804</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9186035066707783</v>
+        <v>0.9188794115885989</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.8535361077441921</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8546409273740828</v>
+        <v>0.8546409273740825</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8540223374598106</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8322839746138487</v>
+        <v>0.8354450887128905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8383002223555471</v>
+        <v>0.8378495437829517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8398710568488323</v>
+        <v>0.8404033468335509</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.872337405063099</v>
+        <v>0.8724384747670082</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8717737964828368</v>
+        <v>0.8707800643092614</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8664646480299576</v>
+        <v>0.8668220320148352</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>132634</v>
+        <v>133451</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67641</v>
+        <v>67450</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205951</v>
+        <v>205304</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>152363</v>
+        <v>151803</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78862</v>
+        <v>78520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>226745</v>
+        <v>228372</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1002725</v>
+        <v>999486</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>759578</v>
+        <v>759253</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1779247</v>
+        <v>1777404</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1066151</v>
+        <v>1064149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>800256</v>
+        <v>799889</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1852875</v>
+        <v>1848794</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>425487</v>
+        <v>423914</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>407311</v>
+        <v>406176</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>842326</v>
+        <v>840242</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>454591</v>
+        <v>453770</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>433151</v>
+        <v>432054</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>880171</v>
+        <v>880435</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1580867</v>
+        <v>1586871</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1251590</v>
+        <v>1250917</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2849212</v>
+        <v>2851018</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1656946</v>
+        <v>1657138</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1301566</v>
+        <v>1300082</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2939429</v>
+        <v>2940642</v>
       </c>
     </row>
     <row r="20">
